--- a/Commissions_SaidiA_periode_saisie.xlsx
+++ b/Commissions_SaidiA_periode_saisie.xlsx
@@ -465,19 +465,19 @@
         <v>2016</v>
       </c>
       <c r="B2" t="n">
-        <v>114231.053</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>115623.026</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>115623.026</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2166.250528591221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -485,19 +485,19 @@
         <v>2017</v>
       </c>
       <c r="B3" t="n">
-        <v>338837.0219999999</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>348206.449</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>348230.169</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-23.72000000000003</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>5236.650670258705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +505,19 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>354837.0969999998</v>
+        <v>1000.6</v>
       </c>
       <c r="C4" t="n">
-        <v>375356.9899999998</v>
+        <v>1190.6</v>
       </c>
       <c r="D4" t="n">
-        <v>479907.2499999998</v>
+        <v>1190.6</v>
       </c>
       <c r="E4" t="n">
-        <v>-104550.26</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>6611.298307205622</v>
+        <v>18.39141520679966</v>
       </c>
     </row>
     <row r="5">
@@ -525,16 +525,16 @@
         <v>2019</v>
       </c>
       <c r="B5" t="n">
-        <v>614182.904000001</v>
+        <v>35964.09999999998</v>
       </c>
       <c r="C5" t="n">
-        <v>627609.6519999994</v>
+        <v>38058.08499999998</v>
       </c>
       <c r="D5" t="n">
-        <v>821755.0519999993</v>
+        <v>40909.88499999997</v>
       </c>
       <c r="E5" t="n">
-        <v>-194145.4</v>
+        <v>-2851.8</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>2020</v>
       </c>
       <c r="B6" t="n">
-        <v>47299.4</v>
+        <v>82229.87000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>47300.6</v>
+        <v>85776.29900000001</v>
       </c>
       <c r="D6" t="n">
-        <v>47300.6</v>
+        <v>86475.69900000002</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-699.4</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1469387.476000001</v>
+        <v>119194.57</v>
       </c>
       <c r="C12" t="n">
-        <v>1514096.716999999</v>
+        <v>125024.984</v>
       </c>
       <c r="D12" t="n">
-        <v>1812816.096999999</v>
+        <v>128576.184</v>
       </c>
       <c r="E12" t="n">
-        <v>-298719.3799999999</v>
+        <v>-3551.2</v>
       </c>
       <c r="F12" t="n">
-        <v>14014.19950605555</v>
+        <v>18.39141520679966</v>
       </c>
     </row>
   </sheetData>

--- a/Commissions_SaidiA_periode_saisie.xlsx
+++ b/Commissions_SaidiA_periode_saisie.xlsx
@@ -545,13 +545,13 @@
         <v>2020</v>
       </c>
       <c r="B6" t="n">
-        <v>82229.87000000001</v>
+        <v>84679.27000000002</v>
       </c>
       <c r="C6" t="n">
-        <v>85776.29900000001</v>
+        <v>88226.29900000001</v>
       </c>
       <c r="D6" t="n">
-        <v>86475.69900000002</v>
+        <v>88925.69900000002</v>
       </c>
       <c r="E6" t="n">
         <v>-699.4</v>
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>119194.57</v>
+        <v>121643.97</v>
       </c>
       <c r="C12" t="n">
-        <v>125024.984</v>
+        <v>127474.984</v>
       </c>
       <c r="D12" t="n">
-        <v>128576.184</v>
+        <v>131026.184</v>
       </c>
       <c r="E12" t="n">
         <v>-3551.2</v>

--- a/Commissions_SaidiA_periode_saisie.xlsx
+++ b/Commissions_SaidiA_periode_saisie.xlsx
@@ -505,19 +505,19 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>1000.6</v>
+        <v>7200</v>
       </c>
       <c r="C4" t="n">
-        <v>1190.6</v>
+        <v>7390</v>
       </c>
       <c r="D4" t="n">
-        <v>1190.6</v>
+        <v>7390</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>18.39141520679966</v>
+        <v>132.3387862172272</v>
       </c>
     </row>
     <row r="5">
@@ -525,16 +525,16 @@
         <v>2019</v>
       </c>
       <c r="B5" t="n">
-        <v>35964.09999999998</v>
+        <v>73825.54000000002</v>
       </c>
       <c r="C5" t="n">
-        <v>38058.08499999998</v>
+        <v>76559.28500000005</v>
       </c>
       <c r="D5" t="n">
-        <v>40909.88499999997</v>
+        <v>84164.08500000004</v>
       </c>
       <c r="E5" t="n">
-        <v>-2851.8</v>
+        <v>-7604.8</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>2020</v>
       </c>
       <c r="B6" t="n">
-        <v>84679.27000000002</v>
+        <v>297914.3079999998</v>
       </c>
       <c r="C6" t="n">
-        <v>88226.29900000001</v>
+        <v>302604.3880000001</v>
       </c>
       <c r="D6" t="n">
-        <v>88925.69900000002</v>
+        <v>309153.788</v>
       </c>
       <c r="E6" t="n">
-        <v>-699.4</v>
+        <v>-6549.399999999994</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>121643.97</v>
+        <v>378939.8479999999</v>
       </c>
       <c r="C12" t="n">
-        <v>127474.984</v>
+        <v>386553.6730000001</v>
       </c>
       <c r="D12" t="n">
-        <v>131026.184</v>
+        <v>400707.873</v>
       </c>
       <c r="E12" t="n">
-        <v>-3551.2</v>
+        <v>-14154.19999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>18.39141520679966</v>
+        <v>132.3387862172272</v>
       </c>
     </row>
   </sheetData>

--- a/Commissions_SaidiA_periode_saisie.xlsx
+++ b/Commissions_SaidiA_periode_saisie.xlsx
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>132.3387862172272</v>
+        <v>137.4056796710518</v>
       </c>
     </row>
     <row r="5">
@@ -545,13 +545,13 @@
         <v>2020</v>
       </c>
       <c r="B6" t="n">
-        <v>297914.3079999998</v>
+        <v>299474.9079999999</v>
       </c>
       <c r="C6" t="n">
-        <v>302604.3880000001</v>
+        <v>304165.5880000001</v>
       </c>
       <c r="D6" t="n">
-        <v>309153.788</v>
+        <v>310714.988</v>
       </c>
       <c r="E6" t="n">
         <v>-6549.399999999994</v>
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>378939.8479999999</v>
+        <v>380500.4479999999</v>
       </c>
       <c r="C12" t="n">
-        <v>386553.6730000001</v>
+        <v>388114.8730000001</v>
       </c>
       <c r="D12" t="n">
-        <v>400707.873</v>
+        <v>402269.073</v>
       </c>
       <c r="E12" t="n">
         <v>-14154.19999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>132.3387862172272</v>
+        <v>137.4056796710518</v>
       </c>
     </row>
   </sheetData>

--- a/Commissions_SaidiA_periode_saisie.xlsx
+++ b/Commissions_SaidiA_periode_saisie.xlsx
@@ -465,19 +465,19 @@
         <v>2016</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>512395.3749999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>528011.206</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>528011.2069999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9779.864890206412</v>
       </c>
     </row>
     <row r="3">
@@ -485,19 +485,19 @@
         <v>2017</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>500304.0060000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>515585.143</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>515585.143</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>7681.265039011601</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +505,19 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>7200</v>
+        <v>546789.8219999997</v>
       </c>
       <c r="C4" t="n">
-        <v>7390</v>
+        <v>576223.9589999999</v>
       </c>
       <c r="D4" t="n">
-        <v>7390</v>
+        <v>576375.4189999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-152</v>
       </c>
       <c r="F4" t="n">
-        <v>137.4056796710518</v>
+        <v>10435.0037679338</v>
       </c>
     </row>
     <row r="5">
@@ -525,16 +525,16 @@
         <v>2019</v>
       </c>
       <c r="B5" t="n">
-        <v>73825.54000000002</v>
+        <v>524367.0059999994</v>
       </c>
       <c r="C5" t="n">
-        <v>76559.28500000005</v>
+        <v>538931.4219999993</v>
       </c>
       <c r="D5" t="n">
-        <v>84164.08500000004</v>
+        <v>580339.6229999991</v>
       </c>
       <c r="E5" t="n">
-        <v>-7604.8</v>
+        <v>-41415</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>2020</v>
       </c>
       <c r="B6" t="n">
-        <v>299474.9079999999</v>
+        <v>424350.6960000002</v>
       </c>
       <c r="C6" t="n">
-        <v>304165.5880000001</v>
+        <v>429797.2529999996</v>
       </c>
       <c r="D6" t="n">
-        <v>310714.988</v>
+        <v>445295.4529999996</v>
       </c>
       <c r="E6" t="n">
-        <v>-6549.399999999994</v>
+        <v>-15501</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>380500.4479999999</v>
+        <v>2508206.904999999</v>
       </c>
       <c r="C12" t="n">
-        <v>388114.8730000001</v>
+        <v>2588548.982999999</v>
       </c>
       <c r="D12" t="n">
-        <v>402269.073</v>
+        <v>2645606.844999999</v>
       </c>
       <c r="E12" t="n">
-        <v>-14154.19999999999</v>
+        <v>-57069</v>
       </c>
       <c r="F12" t="n">
-        <v>137.4056796710518</v>
+        <v>27896.13369715181</v>
       </c>
     </row>
   </sheetData>

--- a/Commissions_SaidiA_periode_saisie.xlsx
+++ b/Commissions_SaidiA_periode_saisie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,27 +436,37 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>CA HT periode</t>
+          <t>factures HT année</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>CA TTC période</t>
+          <t>factures TTC année</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total réglements période</t>
+          <t>factures réglées période</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>total RAP</t>
+          <t>pourcentage règlement</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>comms période à payer</t>
+          <t>commissions année</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>commission période</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>commission RAP</t>
         </is>
       </c>
     </row>
@@ -465,19 +475,25 @@
         <v>2016</v>
       </c>
       <c r="B2" t="n">
-        <v>512395.3749999999</v>
+        <v>628472.561</v>
       </c>
       <c r="C2" t="n">
+        <v>644141.705</v>
+      </c>
+      <c r="D2" t="n">
         <v>528011.206</v>
       </c>
-      <c r="D2" t="n">
-        <v>528011.2069999999</v>
-      </c>
       <c r="E2" t="n">
-        <v>-1</v>
+        <v>81.97128083796407</v>
       </c>
       <c r="F2" t="n">
-        <v>9779.864890206412</v>
+        <v>11995.379025</v>
+      </c>
+      <c r="G2" t="n">
+        <v>9832.765828160987</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2162.613196839013</v>
       </c>
     </row>
     <row r="3">
@@ -485,19 +501,25 @@
         <v>2017</v>
       </c>
       <c r="B3" t="n">
-        <v>500304.0060000001</v>
+        <v>581397.5060000001</v>
       </c>
       <c r="C3" t="n">
-        <v>515585.143</v>
+        <v>598886.7030000001</v>
       </c>
       <c r="D3" t="n">
         <v>515585.143</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>86.09059784050672</v>
       </c>
       <c r="F3" t="n">
-        <v>7681.265039011601</v>
+        <v>8926.309370000001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7684.71310172617</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1241.596268273831</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +527,25 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>546789.8219999997</v>
+        <v>847735.2219999993</v>
       </c>
       <c r="C4" t="n">
+        <v>877169.3589999994</v>
+      </c>
+      <c r="D4" t="n">
         <v>576223.9589999999</v>
       </c>
-      <c r="D4" t="n">
-        <v>576375.4189999999</v>
-      </c>
       <c r="E4" t="n">
-        <v>-152</v>
+        <v>65.69130044133249</v>
       </c>
       <c r="F4" t="n">
-        <v>10435.0037679338</v>
+        <v>16178.28254999998</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10627.72419616815</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5550.558353831826</v>
       </c>
     </row>
     <row r="5">
@@ -525,18 +553,24 @@
         <v>2019</v>
       </c>
       <c r="B5" t="n">
-        <v>524367.0059999994</v>
+        <v>940219.5059999995</v>
       </c>
       <c r="C5" t="n">
-        <v>538931.4219999993</v>
+        <v>954975.0219999988</v>
       </c>
       <c r="D5" t="n">
-        <v>580339.6229999991</v>
+        <v>546332.0219999993</v>
       </c>
       <c r="E5" t="n">
-        <v>-41415</v>
+        <v>57.20903787156853</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -545,18 +579,24 @@
         <v>2020</v>
       </c>
       <c r="B6" t="n">
-        <v>424350.6960000002</v>
+        <v>532436.5910000004</v>
       </c>
       <c r="C6" t="n">
-        <v>429797.2529999996</v>
+        <v>541243.6819999997</v>
       </c>
       <c r="D6" t="n">
-        <v>445295.4529999996</v>
+        <v>450000.1529999995</v>
       </c>
       <c r="E6" t="n">
-        <v>-15501</v>
+        <v>83.14187637944562</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -565,18 +605,24 @@
         <v>2021</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>22648.8</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>23413.6</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>8663</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>36.99986332729696</v>
       </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -599,6 +645,12 @@
       <c r="F8" t="n">
         <v>0</v>
       </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -619,6 +671,12 @@
       <c r="F9" t="n">
         <v>0</v>
       </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -639,6 +697,12 @@
       <c r="F10" t="n">
         <v>0</v>
       </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -657,6 +721,12 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -667,19 +737,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2508206.904999999</v>
+        <v>3552910.185999999</v>
       </c>
       <c r="C12" t="n">
-        <v>2588548.982999999</v>
+        <v>3639830.070999998</v>
       </c>
       <c r="D12" t="n">
-        <v>2645606.844999999</v>
+        <v>2624815.482999999</v>
       </c>
       <c r="E12" t="n">
-        <v>-57069</v>
+        <v>411.1039566981144</v>
       </c>
       <c r="F12" t="n">
-        <v>27896.13369715181</v>
+        <v>37099.97094499998</v>
+      </c>
+      <c r="G12" t="n">
+        <v>28145.20312605531</v>
+      </c>
+      <c r="H12" t="n">
+        <v>8954.767818944671</v>
       </c>
     </row>
   </sheetData>

--- a/Commissions_SaidiA_periode_saisie.xlsx
+++ b/Commissions_SaidiA_periode_saisie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,60 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>objectif min</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>objectif excellence</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>% VD</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>% VR</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>% excellence</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>factures HT année</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>factures TTC année</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>factures réglées période</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>pourcentage règlement</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>commissions année</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>commission période</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>commission RAP</t>
         </is>
@@ -475,25 +500,40 @@
         <v>2016</v>
       </c>
       <c r="B2" t="n">
-        <v>628472.561</v>
+        <v>150000</v>
       </c>
       <c r="C2" t="n">
-        <v>644141.705</v>
+        <v>500000</v>
       </c>
       <c r="D2" t="n">
-        <v>528011.206</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>81.97128083796407</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>11995.379025</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>9832.765828160987</v>
+        <v>628472.6</v>
       </c>
       <c r="H2" t="n">
-        <v>2162.613196839013</v>
+        <v>644141.7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>528011.2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>82</v>
+      </c>
+      <c r="K2" t="n">
+        <v>11995.4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>9832.799999999999</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2162.6</v>
       </c>
     </row>
     <row r="3">
@@ -501,25 +541,40 @@
         <v>2017</v>
       </c>
       <c r="B3" t="n">
-        <v>581397.5060000001</v>
+        <v>160000</v>
       </c>
       <c r="C3" t="n">
-        <v>598886.7030000001</v>
+        <v>550000</v>
       </c>
       <c r="D3" t="n">
-        <v>515585.143</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>86.09059784050672</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>8926.309370000001</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7684.71310172617</v>
+        <v>581397.5</v>
       </c>
       <c r="H3" t="n">
-        <v>1241.596268273831</v>
+        <v>598886.7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>515585.1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="K3" t="n">
+        <v>8926.299999999999</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7684.7</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1241.6</v>
       </c>
     </row>
     <row r="4">
@@ -527,50 +582,70 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>847735.2219999993</v>
+        <v>230000</v>
       </c>
       <c r="C4" t="n">
-        <v>877169.3589999994</v>
+        <v>610000</v>
       </c>
       <c r="D4" t="n">
-        <v>576223.9589999999</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>65.69130044133249</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>16178.28254999998</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>10627.72419616815</v>
+        <v>847735.2</v>
       </c>
       <c r="H4" t="n">
-        <v>5550.558353831826</v>
+        <v>877169.4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>576224</v>
+      </c>
+      <c r="J4" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>16178.3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>10627.7</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5550.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B5" t="n">
-        <v>940219.5059999995</v>
-      </c>
-      <c r="C5" t="n">
-        <v>954975.0219999988</v>
-      </c>
-      <c r="D5" t="n">
-        <v>546332.0219999993</v>
-      </c>
-      <c r="E5" t="n">
-        <v>57.20903787156853</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>940219.5</v>
       </c>
       <c r="H5" t="n">
+        <v>954975</v>
+      </c>
+      <c r="I5" t="n">
+        <v>546332</v>
+      </c>
+      <c r="J5" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -578,25 +653,30 @@
       <c r="A6" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="B6" t="n">
-        <v>532436.5910000004</v>
-      </c>
-      <c r="C6" t="n">
-        <v>541243.6819999997</v>
-      </c>
-      <c r="D6" t="n">
-        <v>450000.1529999995</v>
-      </c>
-      <c r="E6" t="n">
-        <v>83.14187637944562</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>532436.6</v>
       </c>
       <c r="H6" t="n">
+        <v>541243.7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>450000.2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>83.09999999999999</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -604,25 +684,30 @@
       <c r="A7" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
         <v>22648.8</v>
       </c>
-      <c r="C7" t="n">
+      <c r="H7" t="n">
         <v>23413.6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="I7" t="n">
         <v>8663</v>
       </c>
-      <c r="E7" t="n">
-        <v>36.99986332729696</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
+        <v>37</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -630,25 +715,30 @@
       <c r="A8" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -656,25 +746,30 @@
       <c r="A9" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -682,25 +777,30 @@
       <c r="A10" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -708,25 +808,30 @@
       <c r="A11" s="1" t="n">
         <v>2025</v>
       </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -736,26 +841,31 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>3552910.185999999</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3639830.070999998</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2624815.482999999</v>
-      </c>
-      <c r="E12" t="n">
-        <v>411.1039566981144</v>
-      </c>
-      <c r="F12" t="n">
-        <v>37099.97094499998</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>28145.20312605531</v>
+        <v>3552910.2</v>
       </c>
       <c r="H12" t="n">
-        <v>8954.767818944671</v>
+        <v>3639830.1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2624815.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>411.1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>37100</v>
+      </c>
+      <c r="L12" t="n">
+        <v>28145.2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>8954.799999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Commissions_SaidiA_periode_saisie.xlsx
+++ b/Commissions_SaidiA_periode_saisie.xlsx
@@ -4,10 +4,10 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="new_SA" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,438 +434,577 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date debut:</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date fin:</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>01/01/10</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>31/12/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
         <is>
           <t>objectif min</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>objectif excellence</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>% VD</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>% VR</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>% excellence</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>factures HT année</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>factures TTC année</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>factures réglées période</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>pourcentage règlement</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>% règlement</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>commissions année</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>commission période</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>commission RAP</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="5">
+      <c r="A5" t="n">
         <v>2016</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B5" t="n">
         <v>150000</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C5" t="n">
         <v>500000</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>628472.6</v>
-      </c>
-      <c r="H2" t="n">
-        <v>644141.7</v>
-      </c>
-      <c r="I2" t="n">
-        <v>528011.2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>82</v>
-      </c>
-      <c r="K2" t="n">
-        <v>11995.4</v>
-      </c>
-      <c r="L2" t="n">
-        <v>9832.799999999999</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2162.6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>628473</v>
+      </c>
+      <c r="H5" t="n">
+        <v>644142</v>
+      </c>
+      <c r="I5" t="n">
+        <v>528011</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>82.0%</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>11995</v>
+      </c>
+      <c r="L5" t="n">
+        <v>9833</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>2017</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B6" t="n">
         <v>160000</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C6" t="n">
         <v>550000</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>581397.5</v>
-      </c>
-      <c r="H3" t="n">
-        <v>598886.7</v>
-      </c>
-      <c r="I3" t="n">
-        <v>515585.1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="K3" t="n">
-        <v>8926.299999999999</v>
-      </c>
-      <c r="L3" t="n">
-        <v>7684.7</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1241.6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>581398</v>
+      </c>
+      <c r="H6" t="n">
+        <v>598887</v>
+      </c>
+      <c r="I6" t="n">
+        <v>515585</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>86.1%</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>8926</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7685</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>2018</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B7" t="n">
         <v>230000</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C7" t="n">
         <v>610000</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>847735.2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>877169.4</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>847735</v>
+      </c>
+      <c r="H7" t="n">
+        <v>877169</v>
+      </c>
+      <c r="I7" t="n">
         <v>576224</v>
       </c>
-      <c r="J4" t="n">
-        <v>65.7</v>
-      </c>
-      <c r="K4" t="n">
-        <v>16178.3</v>
-      </c>
-      <c r="L4" t="n">
-        <v>10627.7</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5550.6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>65.7%</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>16178</v>
+      </c>
+      <c r="L7" t="n">
+        <v>10628</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5551</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>2019</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>940219.5</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>940220</v>
+      </c>
+      <c r="H8" t="n">
         <v>954975</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I8" t="n">
         <v>546332</v>
       </c>
-      <c r="J5" t="n">
-        <v>57.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>57.2%</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>2020</v>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>532436.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>541243.7</v>
-      </c>
-      <c r="I6" t="n">
-        <v>450000.2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>83.09999999999999</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>532437</v>
+      </c>
+      <c r="H9" t="n">
+        <v>541244</v>
+      </c>
+      <c r="I9" t="n">
+        <v>450000</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>83.1%</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>2021</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
-        <v>22648.8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>23413.6</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>22649</v>
+      </c>
+      <c r="H10" t="n">
+        <v>23414</v>
+      </c>
+      <c r="I10" t="n">
         <v>8663</v>
       </c>
-      <c r="J7" t="n">
-        <v>37</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>37.0%</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>2022</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>2023</v>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
         <v>2024</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>2025</v>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="n">
-        <v>3552910.2</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3639830.1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2624815.5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>411.1</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>3552910</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3639830</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2624815</v>
+      </c>
+      <c r="K15" t="n">
         <v>37100</v>
       </c>
-      <c r="L12" t="n">
-        <v>28145.2</v>
-      </c>
-      <c r="M12" t="n">
-        <v>8954.799999999999</v>
+      <c r="L15" t="n">
+        <v>28145</v>
+      </c>
+      <c r="M15" t="n">
+        <v>8955</v>
       </c>
     </row>
   </sheetData>

--- a/Commissions_SaidiA_periode_saisie.xlsx
+++ b/Commissions_SaidiA_periode_saisie.xlsx
@@ -670,21 +670,6 @@
       <c r="A8" t="n">
         <v>2019</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
       <c r="G8" t="n">
         <v>940220</v>
       </c>
@@ -713,21 +698,6 @@
       <c r="A9" t="n">
         <v>2020</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
       <c r="G9" t="n">
         <v>532437</v>
       </c>
@@ -756,21 +726,6 @@
       <c r="A10" t="n">
         <v>2021</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
       <c r="G10" t="n">
         <v>22649</v>
       </c>
@@ -799,21 +754,6 @@
       <c r="A11" t="n">
         <v>2022</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
@@ -842,21 +782,6 @@
       <c r="A12" t="n">
         <v>2023</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
@@ -885,21 +810,6 @@
       <c r="A13" t="n">
         <v>2024</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
@@ -928,21 +838,6 @@
       <c r="A14" t="n">
         <v>2025</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
@@ -971,21 +866,6 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>Total</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>nan%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>nan%</t>
         </is>
       </c>
       <c r="G15" t="n">

--- a/Commissions_SaidiA_periode_saisie.xlsx
+++ b/Commissions_SaidiA_periode_saisie.xlsx
@@ -524,10 +524,10 @@
         <v>2016</v>
       </c>
       <c r="B5" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="C5" t="n">
-        <v>500000</v>
+        <v>400000</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -559,13 +559,13 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>11995</v>
+        <v>10995</v>
       </c>
       <c r="L5" t="n">
-        <v>9833</v>
+        <v>9013</v>
       </c>
       <c r="M5" t="n">
-        <v>2163</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="6">
@@ -573,10 +573,10 @@
         <v>2017</v>
       </c>
       <c r="B6" t="n">
-        <v>160000</v>
+        <v>210000</v>
       </c>
       <c r="C6" t="n">
-        <v>550000</v>
+        <v>450000</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -608,13 +608,13 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>8926</v>
+        <v>7926</v>
       </c>
       <c r="L6" t="n">
-        <v>7685</v>
+        <v>6824</v>
       </c>
       <c r="M6" t="n">
-        <v>1242</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>2018</v>
       </c>
       <c r="B7" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="C7" t="n">
-        <v>610000</v>
+        <v>530000</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -657,19 +657,25 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>16178</v>
+        <v>16378</v>
       </c>
       <c r="L7" t="n">
-        <v>10628</v>
+        <v>10759</v>
       </c>
       <c r="M7" t="n">
-        <v>5551</v>
+        <v>5619</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>2019</v>
       </c>
+      <c r="B8" t="n">
+        <v>230000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>560000</v>
+      </c>
       <c r="G8" t="n">
         <v>940220</v>
       </c>
@@ -685,19 +691,25 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>15985</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>9145</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>6840</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>2020</v>
       </c>
+      <c r="B9" t="n">
+        <v>250000</v>
+      </c>
+      <c r="C9" t="n">
+        <v>580000</v>
+      </c>
       <c r="G9" t="n">
         <v>532437</v>
       </c>
@@ -713,19 +725,25 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>4915</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>4086</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>829</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>2021</v>
       </c>
+      <c r="B10" t="n">
+        <v>270000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>600000</v>
+      </c>
       <c r="G10" t="n">
         <v>22649</v>
       </c>
@@ -878,13 +896,13 @@
         <v>2624815</v>
       </c>
       <c r="K15" t="n">
-        <v>37100</v>
+        <v>56200</v>
       </c>
       <c r="L15" t="n">
-        <v>28145</v>
+        <v>39827</v>
       </c>
       <c r="M15" t="n">
-        <v>8955</v>
+        <v>16373</v>
       </c>
     </row>
   </sheetData>
